--- a/src/main/resources/text.xlsx
+++ b/src/main/resources/text.xlsx
@@ -343,6 +343,9 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B5" s="1">
+        <v>12345.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
